--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/VIRGINIA_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/VIRGINIA_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1252"/>
+  <dimension ref="A1:D1246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C8">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C27">
@@ -771,14 +771,14 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C30">
         <v>7</v>
       </c>
       <c r="D30">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="31">
@@ -1129,13 +1129,13 @@
         <v>7</v>
       </c>
       <c r="D57">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C58">
@@ -1278,7 +1278,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C69">
@@ -1291,7 +1291,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C70">
@@ -1545,7 +1545,7 @@
         <v>7</v>
       </c>
       <c r="D89">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="90">
@@ -1699,7 +1699,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C101">
@@ -1712,7 +1712,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C102">
@@ -1771,13 +1771,13 @@
         <v>7</v>
       </c>
       <c r="D106">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C107">
@@ -1977,7 +1977,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C122">
@@ -2106,13 +2106,13 @@
         <v>7</v>
       </c>
       <c r="D131">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C136">
@@ -2363,7 +2363,7 @@
         <v>7</v>
       </c>
       <c r="D150">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="151">
@@ -2473,7 +2473,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C159">
@@ -2525,7 +2525,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C163">
@@ -2538,14 +2538,14 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C164">
         <v>7</v>
       </c>
       <c r="D164">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="165">
@@ -2629,13 +2629,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estado de México_x000D_
-</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C171">
@@ -2661,7 +2660,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C173">
@@ -2674,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C174">
@@ -2752,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C180">
@@ -2843,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C187">
@@ -2921,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C193">
@@ -2973,7 +2972,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C197">
@@ -2986,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C198">
@@ -3155,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C211">
@@ -3246,14 +3245,14 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C218">
         <v>7</v>
       </c>
       <c r="D218">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="219">
@@ -3344,7 +3343,7 @@
         <v>7</v>
       </c>
       <c r="D225">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="226">
@@ -3363,7 +3362,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C227">
@@ -3454,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C234">
@@ -3519,7 +3518,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C239">
@@ -3532,7 +3531,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C240">
@@ -3545,7 +3544,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C241">
@@ -3693,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C252">
@@ -3706,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C253">
@@ -3719,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C254">
@@ -3810,7 +3809,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C261">
@@ -3862,7 +3861,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C265">
@@ -3966,7 +3965,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C273">
@@ -4018,7 +4017,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C277">
@@ -4044,7 +4043,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C279">
@@ -4070,7 +4069,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C281">
@@ -4096,7 +4095,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C283">
@@ -4122,7 +4121,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C285">
@@ -4174,7 +4173,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C289">
@@ -4244,7 +4243,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C294">
@@ -4270,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C296">
@@ -4283,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C297">
@@ -4335,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C301">
@@ -4361,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C303">
@@ -4374,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C304">
@@ -4400,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C306">
@@ -4413,14 +4412,14 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C307">
         <v>7</v>
       </c>
       <c r="D307">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="308">
@@ -4465,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C311">
@@ -4478,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C312">
@@ -4530,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C316">
@@ -4543,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C317">
@@ -4595,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C321">
@@ -4608,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C322">
@@ -4634,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C324">
@@ -4660,7 +4659,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C326">
@@ -4686,7 +4685,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C328">
@@ -4732,7 +4731,7 @@
         <v>7</v>
       </c>
       <c r="D331">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="332">
@@ -4829,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C339">
@@ -4855,7 +4854,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C341">
@@ -4881,7 +4880,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C343">
@@ -4933,7 +4932,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C347">
@@ -5005,7 +5004,7 @@
         <v>7</v>
       </c>
       <c r="D352">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="353">
@@ -5133,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C362">
@@ -5179,7 +5178,7 @@
         <v>7</v>
       </c>
       <c r="D365">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="366">
@@ -5198,7 +5197,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C367">
@@ -5224,7 +5223,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C369">
@@ -5276,7 +5275,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C373">
@@ -5315,7 +5314,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C376">
@@ -5393,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C382">
@@ -5406,7 +5405,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C383">
@@ -5432,7 +5431,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C385">
@@ -5445,7 +5444,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C386">
@@ -5458,7 +5457,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C387">
@@ -5497,7 +5496,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C390">
@@ -5562,7 +5561,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C395">
@@ -5614,7 +5613,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C399">
@@ -5627,7 +5626,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C400">
@@ -5640,7 +5639,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C401">
@@ -5653,7 +5652,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C402">
@@ -5718,7 +5717,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C407">
@@ -5731,7 +5730,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C408">
@@ -5757,7 +5756,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C410">
@@ -5853,7 +5852,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C417">
@@ -5866,7 +5865,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C418">
@@ -5905,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C421">
@@ -5957,7 +5956,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C425">
@@ -6035,7 +6034,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C431">
@@ -6087,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C435">
@@ -6100,7 +6099,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C436">
@@ -6165,7 +6164,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C441">
@@ -6256,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C448">
@@ -6269,7 +6268,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C449">
@@ -6308,7 +6307,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C452">
@@ -6334,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C454">
@@ -6373,7 +6372,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C457">
@@ -6412,7 +6411,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C460">
@@ -6438,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C462">
@@ -6451,7 +6450,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C463">
@@ -6542,7 +6541,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C470">
@@ -6581,7 +6580,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C473">
@@ -6607,7 +6606,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C475">
@@ -6931,7 +6930,7 @@
         <v>7</v>
       </c>
       <c r="D499">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="500">
@@ -6996,7 +6995,7 @@
         <v>7</v>
       </c>
       <c r="D504">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="505">
@@ -7594,7 +7593,7 @@
         <v>7</v>
       </c>
       <c r="D550">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="551">
@@ -7607,7 +7606,7 @@
         <v>7</v>
       </c>
       <c r="D551">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="552">
@@ -7800,7 +7799,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C566">
@@ -7852,7 +7851,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C570">
@@ -7987,7 +7986,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C580">
@@ -8046,7 +8045,7 @@
         <v>7</v>
       </c>
       <c r="D584">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="585">
@@ -8065,7 +8064,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C586">
@@ -8226,7 +8225,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C598">
@@ -8265,7 +8264,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C601">
@@ -8296,7 +8295,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C603">
@@ -8335,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C606">
@@ -8361,7 +8360,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C608">
@@ -8374,7 +8373,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C609">
@@ -8400,7 +8399,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C611">
@@ -8413,7 +8412,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C612">
@@ -8426,7 +8425,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C613">
@@ -8439,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C614">
@@ -8452,7 +8451,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C615">
@@ -8478,7 +8477,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C617">
@@ -8491,7 +8490,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C618">
@@ -8582,7 +8581,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C625">
@@ -8595,7 +8594,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C626">
@@ -8634,7 +8633,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C629">
@@ -8647,7 +8646,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C630">
@@ -8660,7 +8659,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C631">
@@ -8673,7 +8672,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C632">
@@ -8686,7 +8685,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C633">
@@ -8699,7 +8698,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C634">
@@ -8927,7 +8926,7 @@
         <v>7</v>
       </c>
       <c r="D651">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="652">
@@ -8972,7 +8971,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C655">
@@ -9076,7 +9075,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C663">
@@ -9213,13 +9212,13 @@
         <v>7</v>
       </c>
       <c r="D673">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C674">
@@ -9291,7 +9290,7 @@
         <v>7</v>
       </c>
       <c r="D679">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="680">
@@ -9544,7 +9543,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C699">
@@ -9564,7 +9563,7 @@
         <v>7</v>
       </c>
       <c r="D700">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="701">
@@ -9616,7 +9615,7 @@
         <v>7</v>
       </c>
       <c r="D704">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="705">
@@ -9778,7 +9777,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C717">
@@ -9791,7 +9790,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C718">
@@ -9882,7 +9881,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C725">
@@ -10019,7 +10018,7 @@
         <v>7</v>
       </c>
       <c r="D735">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="736">
@@ -10038,7 +10037,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C737">
@@ -10051,7 +10050,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C738">
@@ -10214,7 +10213,7 @@
         <v>7</v>
       </c>
       <c r="D750">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="751">
@@ -10584,7 +10583,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C779">
@@ -10727,7 +10726,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C790">
@@ -10740,7 +10739,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C791">
@@ -10753,7 +10752,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C792">
@@ -10766,7 +10765,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C793">
@@ -10779,7 +10778,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C794">
@@ -10792,7 +10791,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C795">
@@ -10818,7 +10817,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C797">
@@ -10844,7 +10843,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C799">
@@ -10857,7 +10856,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C800">
@@ -10870,7 +10869,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C801">
@@ -10909,7 +10908,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C804">
@@ -10922,7 +10921,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C805">
@@ -10974,7 +10973,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C809">
@@ -10994,7 +10993,7 @@
         <v>740</v>
       </c>
       <c r="D810">
-        <v>0.09938221864088101</v>
+        <v>0.099382218640881</v>
       </c>
     </row>
     <row r="811">
@@ -11116,7 +11115,7 @@
         <v>7</v>
       </c>
       <c r="D819">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="820">
@@ -11395,7 +11394,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C841">
@@ -11421,7 +11420,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C843">
@@ -11538,7 +11537,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C852">
@@ -11616,7 +11615,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C858">
@@ -11792,7 +11791,7 @@
         <v>7</v>
       </c>
       <c r="D871">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="872">
@@ -11811,7 +11810,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C873">
@@ -11824,7 +11823,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C874">
@@ -11928,7 +11927,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C882">
@@ -11967,7 +11966,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C885">
@@ -11993,7 +11992,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C887">
@@ -12045,7 +12044,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C891">
@@ -12336,7 +12335,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C913">
@@ -12362,7 +12361,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C915">
@@ -12440,7 +12439,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C921">
@@ -12453,7 +12452,7 @@
     <row r="922">
       <c r="B922" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C922">
@@ -12492,7 +12491,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C925">
@@ -12518,7 +12517,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C927">
@@ -12671,7 +12670,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C938">
@@ -12736,7 +12735,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C943">
@@ -12840,7 +12839,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C951">
@@ -12905,7 +12904,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C956">
@@ -12970,14 +12969,14 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C961">
         <v>7</v>
       </c>
       <c r="D961">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="962">
@@ -12996,7 +12995,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C963">
@@ -13074,7 +13073,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C969">
@@ -13113,7 +13112,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C972">
@@ -13126,7 +13125,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C973">
@@ -13139,7 +13138,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C974">
@@ -13152,7 +13151,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C975">
@@ -13165,7 +13164,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C976">
@@ -13178,7 +13177,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C977">
@@ -13255,7 +13254,7 @@
         <v>7</v>
       </c>
       <c r="D982">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="983">
@@ -13674,7 +13673,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1014">
@@ -14004,7 +14003,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1039">
@@ -14050,7 +14049,7 @@
         <v>7</v>
       </c>
       <c r="D1042">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="1043">
@@ -14230,7 +14229,7 @@
     <row r="1056">
       <c r="B1056" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1056">
@@ -14269,7 +14268,7 @@
     <row r="1059">
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1059">
@@ -14411,7 +14410,7 @@
         <v>7</v>
       </c>
       <c r="D1069">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="1070">
@@ -14456,7 +14455,7 @@
     <row r="1073">
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1073">
@@ -14489,13 +14488,13 @@
         <v>7</v>
       </c>
       <c r="D1075">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1076">
@@ -14612,7 +14611,7 @@
     <row r="1085">
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1085">
@@ -14638,7 +14637,7 @@
     <row r="1087">
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1087">
@@ -14794,7 +14793,7 @@
     <row r="1099">
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1099">
@@ -14807,7 +14806,7 @@
     <row r="1100">
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1100">
@@ -15002,7 +15001,7 @@
     <row r="1115">
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1115">
@@ -15015,7 +15014,7 @@
     <row r="1116">
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1116">
@@ -15054,7 +15053,7 @@
     <row r="1119">
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1119">
@@ -15067,7 +15066,7 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1120">
@@ -15139,7 +15138,7 @@
         <v>7</v>
       </c>
       <c r="D1125">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="1126">
@@ -15152,13 +15151,13 @@
         <v>7</v>
       </c>
       <c r="D1126">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1127">
@@ -15197,7 +15196,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1130">
@@ -15236,7 +15235,7 @@
     <row r="1133">
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1133">
@@ -15262,7 +15261,7 @@
     <row r="1135">
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1135">
@@ -15314,7 +15313,7 @@
     <row r="1139">
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1139">
@@ -15418,7 +15417,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1147">
@@ -15457,7 +15456,7 @@
     <row r="1150">
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1150">
@@ -15470,7 +15469,7 @@
     <row r="1151">
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1151">
@@ -15522,7 +15521,7 @@
     <row r="1155">
       <c r="B1155" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1155">
@@ -15594,13 +15593,13 @@
         <v>7</v>
       </c>
       <c r="D1160">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="1161">
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1161">
@@ -15639,14 +15638,14 @@
     <row r="1164">
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1164">
         <v>7</v>
       </c>
       <c r="D1164">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="1165">
@@ -15977,7 +15976,7 @@
     <row r="1190">
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1190">
@@ -16081,7 +16080,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1198">
@@ -16094,7 +16093,7 @@
     <row r="1199">
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1199">
@@ -16273,7 +16272,7 @@
     <row r="1212">
       <c r="B1212" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1212">
@@ -16332,7 +16331,7 @@
         <v>7</v>
       </c>
       <c r="D1216">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="1217">
@@ -16358,7 +16357,7 @@
         <v>7</v>
       </c>
       <c r="D1218">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="1219">
@@ -16377,7 +16376,7 @@
     <row r="1220">
       <c r="B1220" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1220">
@@ -16455,14 +16454,14 @@
     <row r="1226">
       <c r="B1226" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1226">
         <v>7</v>
       </c>
       <c r="D1226">
-        <v>0.0009401020682245501</v>
+        <v>0.00094010206822455</v>
       </c>
     </row>
     <row r="1227">
@@ -16494,7 +16493,7 @@
     <row r="1229">
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1229">
@@ -16507,7 +16506,7 @@
     <row r="1230">
       <c r="B1230" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1230">
@@ -16520,7 +16519,7 @@
     <row r="1231">
       <c r="B1231" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1231">
@@ -16624,7 +16623,7 @@
     <row r="1239">
       <c r="B1239" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1239">
@@ -16637,7 +16636,7 @@
     <row r="1240">
       <c r="B1240" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1240">
@@ -16663,7 +16662,7 @@
     <row r="1242">
       <c r="B1242" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1242">
@@ -16723,41 +16722,6 @@
       </c>
       <c r="D1246">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="1249">
-      <c r="A1249" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1250">
-      <c r="A1250" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1251">
-      <c r="A1251" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1252">
-      <c r="A1252" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
